--- a/excel/02.xlsx
+++ b/excel/02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yabuki\Dropbox\it-chiba\データ解析入門\analysis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C840FA7-D3E7-4FAA-9306-59FF7AA845B6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBED6485-2B45-4A8F-9183-C8ED82209017}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10410" yWindow="970" windowWidth="19580" windowHeight="19650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3150" yWindow="4160" windowWidth="19370" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>↖ここをつかんでドラッグまたはここをダブルクリック</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>その3 セルの上でF2（←これが便利）</t>
-  </si>
-  <si>
-    <t>セルのサイズを内容に合わせる方法</t>
   </si>
   <si>
     <t>その1 H1の前半</t>
@@ -480,6 +477,20 @@
   </si>
   <si>
     <t>第2回</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2B9KRNX9dPk</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セルのサイズを内容に合わせる方法（動画解説→）</t>
+    <rPh sb="17" eb="19">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カイセツ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -893,9 +904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -907,7 +916,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>0</v>
@@ -920,7 +929,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -946,7 +955,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -989,85 +998,88 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>65</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1078,12 +1090,12 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1094,17 +1106,17 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1115,20 +1127,20 @@
         <v>20</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" t="s">
         <v>38</v>
-      </c>
-      <c r="C46" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1139,7 +1151,7 @@
         <v>20</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1150,12 +1162,12 @@
         <v>40</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1166,7 +1178,7 @@
         <v>20</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1177,12 +1189,12 @@
         <v>40</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1200,28 +1212,28 @@
         <v>60</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1229,7 +1241,7 @@
         <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1237,7 +1249,7 @@
         <v>20</v>
       </c>
       <c r="C67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1245,7 +1257,7 @@
         <v>30</v>
       </c>
       <c r="C68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1256,28 +1268,28 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="C76" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1294,7 +1306,7 @@
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1304,7 +1316,7 @@
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1314,7 +1326,7 @@
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1324,7 +1336,7 @@
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1334,19 +1346,21 @@
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
       <c r="D82" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="B24" r:id="rId1" xr:uid="{B43D61B6-6C6C-4603-9ABC-DD4C0A885D1B}"/>
+    <hyperlink ref="E18" r:id="rId2" xr:uid="{E702B21E-8A01-4A3E-AB3A-97909CEA4A71}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
--- a/excel/02.xlsx
+++ b/excel/02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yabuki\Dropbox\it-chiba\データ解析入門\analysis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBED6485-2B45-4A8F-9183-C8ED82209017}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C846A7A-7236-40D5-8C5E-F695D1CA6F5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="4160" windowWidth="19370" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4180" yWindow="2230" windowWidth="23300" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
-  <si>
-    <t>↖ここをつかんでドラッグまたはここをダブルクリック</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>今日やること</t>
   </si>
@@ -82,9 +79,6 @@
   </si>
   <si>
     <t>その3 リボンの「セル」の書式→列の幅の自動調整</t>
-  </si>
-  <si>
-    <t>H1っていうのは，H列の1行目ということ（黄色で塗りつぶしておいた）</t>
   </si>
   <si>
     <t>計算</t>
@@ -350,10 +344,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>←B66をコピー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>総合問題</t>
     <rPh sb="0" eb="2">
       <t>ソウゴウ</t>
@@ -395,19 +385,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>←ここにコピーする．（つまり，数式を入力していいのは1回だけ）</t>
-    <rPh sb="15" eb="17">
-      <t>スウシキ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>これがわからなくても，焦って教科書を買う必要はありません．</t>
     <rPh sb="11" eb="12">
       <t>アセ</t>
@@ -472,10 +449,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>←ここにコピーする．</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>第2回</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -490,6 +463,20 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>←B66をコピペ（1回で）</t>
+    <rPh sb="10" eb="11">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>←ここにコピペ（1回で）</t>
+    <rPh sb="9" eb="10">
+      <t>カイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -537,7 +524,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -550,8 +537,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -574,12 +567,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -587,6 +589,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -904,182 +914,177 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:E18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
     <col min="8" max="8" width="26.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" t="s">
         <v>9</v>
-      </c>
-      <c r="I13" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" t="s">
         <v>9</v>
-      </c>
-      <c r="I14" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" t="s">
         <v>9</v>
-      </c>
-      <c r="I15" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1090,12 +1095,12 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1106,17 +1111,17 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1127,20 +1132,20 @@
         <v>20</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1151,7 +1156,7 @@
         <v>20</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1162,12 +1167,12 @@
         <v>40</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D54" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1178,7 +1183,7 @@
         <v>20</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1189,12 +1194,12 @@
         <v>40</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1212,28 +1217,28 @@
         <v>60</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1241,24 +1246,24 @@
         <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>20</v>
       </c>
-      <c r="C67" t="s">
-        <v>51</v>
+      <c r="B67" s="7"/>
+      <c r="C67" s="10" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>30</v>
       </c>
-      <c r="C68" t="s">
-        <v>51</v>
-      </c>
+      <c r="B68" s="7"/>
+      <c r="C68" s="10"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="3">
@@ -1268,28 +1273,28 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1306,7 +1311,7 @@
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1314,8 +1319,8 @@
       <c r="B79" s="6">
         <v>500</v>
       </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="5" t="s">
+      <c r="C79" s="9"/>
+      <c r="D79" s="8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1324,37 +1329,35 @@
         <v>10</v>
       </c>
       <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="C80" s="9"/>
+      <c r="D80" s="8"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="6"/>
       <c r="B81" s="6">
         <v>10000</v>
       </c>
-      <c r="C81" s="6"/>
-      <c r="D81" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="C81" s="9"/>
+      <c r="D81" s="8"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="6">
         <v>30</v>
       </c>
       <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="C82" s="9"/>
+      <c r="D82" s="8"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D83" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D79:D82"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="B24" r:id="rId1" xr:uid="{B43D61B6-6C6C-4603-9ABC-DD4C0A885D1B}"/>
